--- a/Configs/GameConfig/Datas/__tables__.xlsx
+++ b/Configs/GameConfig/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpace\Lan-TEngine\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA7BA2E-758C-4FAD-83A2-3DC61C5F5B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D23F9D-69ED-4962-A982-403A22F9D7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -127,11 +127,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>id+level</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbBuff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDesc.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id+level+index</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -510,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -629,7 +645,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -646,7 +662,24 @@
         <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/GameConfig/Datas/__tables__.xlsx
+++ b/Configs/GameConfig/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpace\Lan-TEngine\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D23F9D-69ED-4962-A982-403A22F9D7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D1F889-2513-4DC5-86CA-4DAD1A1B2224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27135" yWindow="1485" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+  </si>
+  <si>
+    <t>item.TbItem</t>
+  </si>
+  <si>
+    <t>item.xlsx</t>
   </si>
   <si>
     <t>SpellDesc</t>
@@ -111,6 +117,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>TbSpell</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -127,27 +141,147 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>TbBuff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDesc.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbHeroDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroDesc.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainlandActorShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbMainlandActorShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainlandActorShow.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbMonsterFeatureDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterFeatureDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterFeatureDesc.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbMonsterDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterDesc.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbCommonConstant</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonConstant.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonConstantDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbFetterDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FetterDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FetterDesc.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbMainlandDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainlandDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainlandDesc.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbMonsterGroupDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterGroupDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterGroupDesc.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbCardDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id+level+index</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>TbBuff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffDesc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffDesc.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id+level+index</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,61 +766,228 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>29</v>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
+      <c r="E4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="SpellDesc@技能配置表.xlsx" xr:uid="{36ED2656-C602-47A1-910C-A7E2A6A5B49E}"/>
-    <hyperlink ref="E5" r:id="rId2" display="SpellEffectDesc@技能配置表.xlsx" xr:uid="{11498A85-F3F6-49A3-A277-BBA913684B6D}"/>
+    <hyperlink ref="E5" r:id="rId1" display="SpellDesc@技能配置表.xlsx" xr:uid="{36ED2656-C602-47A1-910C-A7E2A6A5B49E}"/>
+    <hyperlink ref="E6" r:id="rId2" display="SpellEffectDesc@技能配置表.xlsx" xr:uid="{11498A85-F3F6-49A3-A277-BBA913684B6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
